--- a/la validation soft skills/Vlidation GL Sprint 2/Burndown-chart-excel-france-2.xlsx
+++ b/la validation soft skills/Vlidation GL Sprint 2/Burndown-chart-excel-france-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Bureau\PIDEV-3A29-dynamic-developers\la validation soft skills\Vlidation GL Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7D25C0-41EC-4AA5-AE9D-C546F44CDCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E4263-7F1A-4592-AC98-3C3854BD251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,25 +304,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -425,10 +406,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -510,7 +491,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Unités de temps (jours)</a:t>
+                  <a:t>Unités de temps (Semaine)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -523,25 +504,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -633,7 +595,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Unités de travail (stories)</a:t>
+                  <a:t>Unités de travail (Heures)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -646,25 +608,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -776,595 +719,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1606,8 +960,8 @@
   </sheetPr>
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2208,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2216,7 +1570,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
